--- a/单词分类及助记符.xlsx
+++ b/单词分类及助记符.xlsx
@@ -353,7 +353,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -371,22 +371,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="等线"/>
-      <family val="3"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="8" tint="-0.499984740745262"/>
-      <name val="等线"/>
-      <family val="3"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
+      <color theme="1"/>
       <name val="等线"/>
       <family val="3"/>
       <charset val="134"/>
@@ -395,7 +380,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color theme="1"/>
       <name val="等线"/>
       <family val="3"/>
       <charset val="134"/>
@@ -430,26 +415,23 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -768,20 +750,20 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G40"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="B39" sqref="B39"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:C40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
+      <c r="A1" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="2" t="s">
         <v>0</v>
       </c>
     </row>
@@ -924,167 +906,167 @@
       <c r="B14" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="C14">
+      <c r="C14" s="2">
         <v>13</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A15" s="3" t="s">
+      <c r="A15" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="B15" s="3" t="s">
+      <c r="B15" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="C15" s="3">
+      <c r="C15" s="2">
         <v>14</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A16" s="3" t="s">
+      <c r="A16" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="B16" s="3" t="s">
+      <c r="B16" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="C16" s="3">
+      <c r="C16" s="2">
         <v>15</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A17" s="3" t="s">
+      <c r="A17" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="B17" s="3" t="s">
+      <c r="B17" s="2" t="s">
         <v>66</v>
       </c>
-      <c r="C17" s="3">
+      <c r="C17" s="2">
         <v>16</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A18" s="5" t="s">
+      <c r="A18" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="B18" s="5" t="s">
+      <c r="B18" s="3" t="s">
         <v>67</v>
       </c>
-      <c r="C18" s="5">
+      <c r="C18" s="3">
         <v>17</v>
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A19" s="3" t="s">
+      <c r="A19" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="B19" s="3" t="s">
+      <c r="B19" s="2" t="s">
         <v>68</v>
       </c>
-      <c r="C19" s="3">
+      <c r="C19" s="2">
         <v>18</v>
       </c>
-      <c r="G19" s="4"/>
+      <c r="G19" s="1"/>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A20" s="3" t="s">
+      <c r="A20" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="B20" s="3" t="s">
+      <c r="B20" s="2" t="s">
         <v>69</v>
       </c>
-      <c r="C20" s="3">
+      <c r="C20" s="2">
         <v>19</v>
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A21" s="3" t="s">
+      <c r="A21" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="B21" s="3" t="s">
+      <c r="B21" s="2" t="s">
         <v>70</v>
       </c>
-      <c r="C21" s="3">
+      <c r="C21" s="2">
         <v>20</v>
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A22" s="3" t="s">
+      <c r="A22" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="B22" s="3" t="s">
+      <c r="B22" s="2" t="s">
         <v>71</v>
       </c>
-      <c r="C22" s="3">
+      <c r="C22" s="2">
         <v>21</v>
       </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A23" s="3" t="s">
+      <c r="A23" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="B23" s="3" t="s">
+      <c r="B23" s="2" t="s">
         <v>72</v>
       </c>
-      <c r="C23" s="3">
+      <c r="C23" s="2">
         <v>22</v>
       </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A24" s="3" t="s">
+      <c r="A24" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="B24" s="3" t="s">
+      <c r="B24" s="2" t="s">
         <v>73</v>
       </c>
-      <c r="C24" s="3">
+      <c r="C24" s="2">
         <v>23</v>
       </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A25" s="3" t="s">
+      <c r="A25" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="B25" s="3" t="s">
+      <c r="B25" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="C25" s="3">
+      <c r="C25" s="2">
         <v>24</v>
       </c>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A26" s="3" t="s">
+      <c r="A26" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="B26" s="3" t="s">
+      <c r="B26" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="C26" s="3">
+      <c r="C26" s="2">
         <v>25</v>
       </c>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A27" s="3" t="s">
+      <c r="A27" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="B27" s="3" t="s">
+      <c r="B27" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="C27" s="3">
+      <c r="C27" s="2">
         <v>26</v>
       </c>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A28" s="3" t="s">
+      <c r="A28" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="B28" s="3" t="s">
+      <c r="B28" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="C28" s="3">
+      <c r="C28" s="2">
         <v>27</v>
       </c>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A29" s="6" t="s">
+      <c r="A29" s="4" t="s">
         <v>57</v>
       </c>
       <c r="B29" s="2" t="s">
@@ -1106,112 +1088,112 @@
       </c>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A31" s="3" t="s">
+      <c r="A31" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="B31" s="3" t="s">
+      <c r="B31" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="C31" s="3">
+      <c r="C31" s="2">
         <v>30</v>
       </c>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A32" t="s">
+      <c r="A32" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="B32" t="s">
+      <c r="B32" s="2" t="s">
         <v>80</v>
       </c>
-      <c r="C32">
+      <c r="C32" s="2">
         <v>31</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A33" t="s">
+      <c r="A33" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="B33" t="s">
+      <c r="B33" s="2" t="s">
         <v>75</v>
       </c>
-      <c r="C33">
+      <c r="C33" s="2">
         <v>32</v>
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A34" t="s">
+      <c r="A34" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="B34" t="s">
+      <c r="B34" s="2" t="s">
         <v>76</v>
       </c>
-      <c r="C34">
+      <c r="C34" s="2">
         <v>33</v>
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A35" t="s">
+      <c r="A35" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="B35" t="s">
+      <c r="B35" s="2" t="s">
         <v>77</v>
       </c>
-      <c r="C35">
+      <c r="C35" s="2">
         <v>34</v>
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A36" s="1" t="s">
+      <c r="A36" s="5" t="s">
         <v>56</v>
       </c>
-      <c r="B36" t="s">
+      <c r="B36" s="2" t="s">
         <v>78</v>
       </c>
-      <c r="C36">
+      <c r="C36" s="2">
         <v>35</v>
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A37" t="s">
+      <c r="A37" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="B37" t="s">
+      <c r="B37" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="C37">
+      <c r="C37" s="2">
         <v>36</v>
       </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A38" t="s">
+      <c r="A38" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="B38" t="s">
+      <c r="B38" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="C38">
+      <c r="C38" s="2">
         <v>37</v>
       </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A39" t="s">
+      <c r="A39" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="B39" t="s">
+      <c r="B39" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="C39">
+      <c r="C39" s="2">
         <v>38</v>
       </c>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A40" t="s">
+      <c r="A40" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="B40" t="s">
+      <c r="B40" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="C40">
+      <c r="C40" s="2">
         <v>39</v>
       </c>
     </row>
